--- a/logs/graphs.xlsx
+++ b/logs/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="260" windowWidth="25040" windowHeight="16040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="200" windowWidth="25040" windowHeight="16100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,6 +732,360 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>First Synchronization Power Consumption</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHEDULE A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1896144780699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1949561513187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2076080153742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.188793288409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2075685909487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2085618170301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHEDULE B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0052680008543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0047678937362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0053188298644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00507622153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0051538243751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0053632847838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCHEDULE C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0031870571106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5569451985838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5799267497988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8795006165717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9023792352969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2022444936626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2071897592"/>
+        <c:axId val="-2071937896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2071897592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2071937896"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2071937896"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Joules</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2071897592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -750,6 +1104,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1412,9 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -1441,48 +1828,89 @@
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>0.18961447806990001</v>
+      </c>
+      <c r="C4">
+        <v>5.2680008542999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.1870571106000002E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5">
+        <v>0.19495615131870001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.7678937361999999E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.55694519858379998</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="16">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1">
+        <v>0.20760801537420001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.3188298644000001E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.57992674979879999</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="16">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.188793288409</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.0762215300000002E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.87950061657169998</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="16">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.2075685909487</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.1538243751000001E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.90237923529690001</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="16">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1">
+        <v>0.20856181703009999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.3632847838E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.2022444936626</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/logs/graphs.xlsx
+++ b/logs/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="200" windowWidth="25040" windowHeight="16100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>First Synchronization Time</t>
   </si>
   <si>
-    <t>First Synchronization Power Consumption</t>
+    <t>Node Power Consumption</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -639,11 +638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2062893224"/>
-        <c:axId val="2141257400"/>
+        <c:axId val="-2065190808"/>
+        <c:axId val="2137130232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2062893224"/>
+        <c:axId val="-2065190808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,14 +664,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141257400"/>
+        <c:crossAx val="2137130232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -680,7 +678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141257400"/>
+        <c:axId val="2137130232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,21 +701,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062893224"/>
+        <c:crossAx val="-2065190808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -757,7 +753,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>First Synchronization Power Consumption</a:t>
+              <a:t>Node Power Consumption</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -991,11 +987,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2071897592"/>
-        <c:axId val="-2071937896"/>
+        <c:axId val="-2065778472"/>
+        <c:axId val="-2066378472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2071897592"/>
+        <c:axId val="-2065778472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071937896"/>
+        <c:crossAx val="-2066378472"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071937896"/>
+        <c:axId val="-2066378472"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1064,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071897592"/>
+        <c:crossAx val="-2065778472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/logs/graphs.xlsx
+++ b/logs/graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,8 +92,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -105,13 +107,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -149,6 +153,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -245,10 +250,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$23</c:f>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -266,48 +271,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.2506569499969</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3120320081711</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3734065971375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4347814483643</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4961552906036</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5575300865173</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.618935798645</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6803098955154</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.741684548378</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8030594234467</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.8644335241318</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.9258076057434</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9871830558777</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0485577888489</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1099318857193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,10 +365,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$23</c:f>
+              <c:f>Sheet1!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -423,48 +386,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.0887081422806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.359578496933</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.6304955596924</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.9014254484177</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.1723022155762</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.4431736383438</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.7140891466141</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.9849587907791</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.2558486614227</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.5267638158798</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31.7976834411621</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.068544708252</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36.3394331064224</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38.6103150653839</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40.8811560249329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,10 +480,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$23</c:f>
+              <c:f>Sheet1!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -580,48 +501,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.0315818662643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.7881833953857</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.544760725975</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.3014310216904</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.0579981107712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42.8146505775452</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47.5712554197311</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52.3278487224579</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57.0844282617569</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>61.8409843969345</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>66.5975367326736</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71.3540987949371</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>76.1106020746231</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80.8672291021347</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85.6238097200394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,11 +517,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065190808"/>
-        <c:axId val="2137130232"/>
+        <c:axId val="-2066562600"/>
+        <c:axId val="2057677256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065190808"/>
+        <c:axId val="-2066562600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,13 +543,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137130232"/>
+        <c:crossAx val="2057677256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -678,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137130232"/>
+        <c:axId val="2057677256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,19 +581,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065190808"/>
+        <c:crossAx val="-2066562600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -987,11 +869,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2065778472"/>
-        <c:axId val="-2066378472"/>
+        <c:axId val="2057559864"/>
+        <c:axId val="-2066523768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065778472"/>
+        <c:axId val="2057559864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066378472"/>
+        <c:crossAx val="-2066523768"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,7 +910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066378472"/>
+        <c:axId val="-2066523768"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1060,7 +942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065778472"/>
+        <c:crossAx val="2057559864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1476,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1797,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
